--- a/BalanceSheet/BLL_bal.xlsx
+++ b/BalanceSheet/BLL_bal.xlsx
@@ -2498,19 +2498,19 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>40000000.0</v>
+        <v>407000000.0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>27000000.0</v>
+        <v>322000000.0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>-14000000.0</v>
+        <v>275000000.0</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>-36000000.0</v>
+        <v>283000000.0</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>-29000000.0</v>
+        <v>320000000.0</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>602000000.0</v>
